--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\教育カリキュラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3106D5CB-21CD-44FF-9430-81E93B8E7F1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C04AB-809D-478D-87F3-A87BF6E56B0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>施策：</t>
     <rPh sb="0" eb="2">
@@ -651,6 +651,727 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強内容</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1課～第2課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3課～第4課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第5課～第6課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第7課～第8課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第9課～第10課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第11課～第12課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第13課～第14課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第15課～第16課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第17課～第18課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第19課～第20課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第21課～第22課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第23課～第24課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第25課～第26課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第27課～第28課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第29課～第30課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第31課～第32課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第33課～第34課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第35課～第36課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第37課～第38課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第39課～第40課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第41課～第42課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第43課～第44課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第45課～第46課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第47課～第48課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第49課～第50課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第51課～第52課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第53課～第54課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第55課～第56課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第57課～第58課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第59課～第60課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第61課～第62課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第63課～第64課の単語と文法</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復習</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -682,20 +1403,41 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -704,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +1460,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,33 +1986,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="9" max="9" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1269,7 +2022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1277,7 +2030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1285,7 +2038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -1293,14 +2046,306 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>40</v>
+      </c>
+      <c r="H12" s="6">
+        <v>44344</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H13" s="6">
+        <v>44345</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H14" s="6">
+        <v>44346</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="6">
+        <v>44347</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H16" s="6">
+        <v>44348</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H17" s="6">
+        <v>44349</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H18" s="6">
+        <v>44350</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H19" s="6">
+        <v>44351</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H20" s="6">
+        <v>44352</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H21" s="6">
+        <v>44353</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H22" s="6">
+        <v>44354</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H23" s="6">
+        <v>44355</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H24" s="6">
+        <v>44356</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H25" s="6">
+        <v>44357</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H26" s="6">
+        <v>44358</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H27" s="6">
+        <v>44359</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H28" s="6">
+        <v>44360</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H29" s="6">
+        <v>44361</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H30" s="6">
+        <v>44362</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H31" s="6">
+        <v>44363</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H32" s="6">
+        <v>44364</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H33" s="6">
+        <v>44365</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="6">
+        <v>44366</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H35" s="6">
+        <v>44367</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="6">
+        <v>44368</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H37" s="6">
+        <v>44369</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H38" s="6">
+        <v>44370</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H39" s="6">
+        <v>44371</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H40" s="6">
+        <v>44372</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H41" s="6">
+        <v>44373</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H42" s="6">
+        <v>44374</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H43" s="6">
+        <v>44375</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H44" s="6">
+        <v>44376</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H45" s="6">
+        <v>44377</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H46" s="6">
+        <v>44378</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H47" s="6">
+        <v>44379</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\教育カリキュラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C04AB-809D-478D-87F3-A87BF6E56B0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A674221-C8CF-4BDC-B03C-C4A55D77ACD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
-    <sheet name="スケジュール(廃止)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,74 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
-  <si>
-    <t>施策：</t>
-    <rPh sb="0" eb="2">
-      <t>シサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３．テレビで日本語を聴く</t>
-    <rPh sb="6" eb="9">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>４．定期的に試験を行う</t>
-    <rPh sb="2" eb="5">
-      <t>テイキテキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１．「標準日本語」本で単語、文法を勉強</t>
-    <rPh sb="3" eb="8">
-      <t>ヒョウジュンニホンゴ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブンポウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２．Yutobeアプリで勉強</t>
-    <rPh sb="12" eb="14">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュール１：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付：</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -102,430 +34,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勉強内容</t>
-    <rPh sb="0" eb="4">
-      <t>ベンキョウナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「標準日本語」初級上の纏めと復習
-・1時間のテレビで日本語の聴力の練習</t>
-    <rPh sb="8" eb="10">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フクシュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>チョウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「標準日本語」初級上の第1課～第12課
-・1時間のテレビで日本語の聴力の練習</t>
-    <rPh sb="8" eb="10">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>チョウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「標準日本語」初級上の第13課～第24課
-・1時間のテレビで日本語の聴力の練習</t>
-    <rPh sb="8" eb="10">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>チョウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「標準日本語」初級下の纏めと復習
-・1時間のテレビで日本語の聴力の練習</t>
-  </si>
-  <si>
-    <t>・「標準日本語」初級下の第31課～第36課
-・1時間のテレビで日本語の聴力の練習</t>
-    <rPh sb="8" eb="10">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>チョウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「標準日本語」初級下の第37課～第42課
-・1時間のテレビで日本語の聴力の練習</t>
-    <rPh sb="8" eb="10">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>チョウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「標準日本語」初級下の第25課～第30課
-・1時間のテレビで日本語の聴力の練習</t>
-    <rPh sb="8" eb="10">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>チョウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「標準日本語」初級下の第43課～第48課
-・1時間のテレビで日本語の聴力の練習</t>
-    <rPh sb="8" eb="10">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>チョウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「標準日本語」初級下の24課の纏めと復習
-・1時間のテレビで日本語の聴力の練習</t>
-    <rPh sb="8" eb="10">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>チョウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・50個単語を勉強
-・1時間のテレビで日本語の聴力の練習</t>
-    <rPh sb="3" eb="4">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N3試験の問題を練習</t>
-    <rPh sb="2" eb="4">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュール２：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勉強内容：</t>
-    <rPh sb="0" eb="2">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・毎日に「標準日本語」中級編の1課を勉強（中級：32課）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/5/10～2021/6/13（34日）</t>
-    <rPh sb="22" eb="23">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・毎4課に纏めて復習</t>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マト</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・毎日に1時間のテレビで日本語の聴力の練習</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・N2試験の問題を練習</t>
-    <rPh sb="3" eb="5">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>レンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュール３：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/6/14～2021/7/3（20日）</t>
-    <rPh sb="21" eb="22">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・「標準日本語」初級と中級の復習</t>
-    <rPh sb="8" eb="10">
-      <t>ショキュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>チュウキュウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>フクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・毎日に30個単語を勉強</t>
-    <rPh sb="1" eb="3">
-      <t>マイニチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・N2文法の纏め</t>
-    <rPh sb="3" eb="5">
-      <t>ブンポウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>５．日本語能力試験N2を受験（2021/7/4）</t>
-    <rPh sb="2" eb="5">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジュケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実施：</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
@@ -1372,6 +880,13 @@
     <t>復習</t>
     <rPh sb="0" eb="2">
       <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N2の試験</t>
+    <rPh sb="3" eb="5">
+      <t>シケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1446,18 +961,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1784,212 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93B74E9-6363-4537-A740-A8E129AD20D7}">
-  <dimension ref="A2:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
+  <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="2">
-        <v>44315</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="2">
-        <v>44316</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="2">
-        <v>44317</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="2">
-        <v>44318</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="2">
-        <v>44319</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B15" s="2">
-        <v>44320</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B16" s="2">
-        <v>44321</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B17" s="2">
-        <v>44322</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B18" s="2">
-        <v>44323</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B19" s="2">
-        <v>44324</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="2">
-        <v>44325</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
-  <dimension ref="A2:I47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2001,351 +1306,367 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44344</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H13" s="3">
+        <v>44345</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H14" s="3">
+        <v>44346</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="3">
+        <v>44347</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H16" s="3">
+        <v>44348</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H17" s="3">
+        <v>44349</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H18" s="3">
+        <v>44350</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H19" s="3">
+        <v>44351</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H20" s="3">
+        <v>44352</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H21" s="3">
+        <v>44353</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H22" s="3">
+        <v>44354</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H23" s="3">
+        <v>44355</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H24" s="3">
+        <v>44356</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H25" s="3">
+        <v>44357</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H26" s="3">
+        <v>44358</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H27" s="3">
+        <v>44359</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H28" s="3">
+        <v>44360</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H29" s="3">
+        <v>44361</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H30" s="3">
+        <v>44362</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H31" s="3">
+        <v>44363</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H32" s="3">
+        <v>44364</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H33" s="3">
+        <v>44365</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="3">
+        <v>44366</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H35" s="3">
+        <v>44367</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="3">
+        <v>44368</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H37" s="3">
+        <v>44369</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="6">
-        <v>44344</v>
-      </c>
-      <c r="I12" s="7" t="s">
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H38" s="3">
+        <v>44370</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H39" s="3">
+        <v>44371</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H40" s="3">
+        <v>44372</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H41" s="3">
+        <v>44373</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H42" s="3">
+        <v>44374</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H43" s="3">
+        <v>44375</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H44" s="3">
+        <v>44376</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H13" s="6">
-        <v>44345</v>
-      </c>
-      <c r="I13" s="7" t="s">
+    <row r="45" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H45" s="3">
+        <v>44377</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H46" s="3">
+        <v>44378</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H47" s="3">
+        <v>44379</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H48" s="3">
+        <v>44380</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H49" s="3">
+        <v>44381</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H14" s="6">
-        <v>44346</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H15" s="6">
-        <v>44347</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H16" s="6">
-        <v>44348</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H17" s="6">
-        <v>44349</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H18" s="6">
-        <v>44350</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H19" s="6">
-        <v>44351</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H20" s="6">
-        <v>44352</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H21" s="6">
-        <v>44353</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H22" s="6">
-        <v>44354</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H23" s="6">
-        <v>44355</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H24" s="6">
-        <v>44356</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H25" s="6">
-        <v>44357</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H26" s="6">
-        <v>44358</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H27" s="6">
-        <v>44359</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H28" s="6">
-        <v>44360</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H29" s="6">
-        <v>44361</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H30" s="6">
-        <v>44362</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H31" s="6">
-        <v>44363</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H32" s="6">
-        <v>44364</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H33" s="6">
-        <v>44365</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H34" s="6">
-        <v>44366</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H35" s="6">
-        <v>44367</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H36" s="6">
-        <v>44368</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H37" s="6">
-        <v>44369</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H38" s="6">
-        <v>44370</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H39" s="6">
-        <v>44371</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H40" s="6">
-        <v>44372</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H41" s="6">
-        <v>44373</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H42" s="6">
-        <v>44374</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H43" s="6">
-        <v>44375</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H44" s="6">
-        <v>44376</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H45" s="6">
-        <v>44377</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H46" s="6">
-        <v>44378</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H47" s="6">
-        <v>44379</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\教育カリキュラム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A674221-C8CF-4BDC-B03C-C4A55D77ACD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091CDAF2-F086-4F87-83F7-9C1508D3BC8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -58,43 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6月1日（火）～　6月25日（金）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1回60分</t>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>週2回か週3回</t>
-    <rPh sb="4" eb="5">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/31にコースを確定し、受講時間をつけます。</t>
-    <rPh sb="9" eb="11">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジュコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実施②のスゲージュル：</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
@@ -887,6 +850,32 @@
     <t>N2の試験</t>
     <rPh sb="3" eb="5">
       <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週2回（火、木）20:00～21:00</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・6月3日（木）～　8月31日（火）→　3ヶ月の予定</t>
+    <rPh sb="6" eb="7">
+      <t>モク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -992,6 +981,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>65217</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>208612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052F9BBF-737B-45EB-833D-DC745EBD1D18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="2743199"/>
+          <a:ext cx="5961192" cy="6037913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1291,35 +1329,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
-  <dimension ref="A2:I49"/>
+  <dimension ref="A2:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="9" max="9" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1327,351 +1365,346 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K12" s="3">
+        <v>44344</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K13" s="3">
+        <v>44345</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K14" s="3">
+        <v>44346</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K15" s="3">
+        <v>44347</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3">
-        <v>44344</v>
-      </c>
-      <c r="I12" s="4" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K16" s="3">
+        <v>44348</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H13" s="3">
-        <v>44345</v>
-      </c>
-      <c r="I13" s="4" t="s">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K17" s="3">
+        <v>44349</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H14" s="3">
-        <v>44346</v>
-      </c>
-      <c r="I14" s="4" t="s">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K18" s="3">
+        <v>44350</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H15" s="3">
-        <v>44347</v>
-      </c>
-      <c r="I15" s="4" t="s">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K19" s="3">
+        <v>44351</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H16" s="3">
-        <v>44348</v>
-      </c>
-      <c r="I16" s="4" t="s">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K20" s="3">
+        <v>44352</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H17" s="3">
-        <v>44349</v>
-      </c>
-      <c r="I17" s="4" t="s">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K21" s="3">
+        <v>44353</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H18" s="3">
-        <v>44350</v>
-      </c>
-      <c r="I18" s="4" t="s">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K22" s="3">
+        <v>44354</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H19" s="3">
-        <v>44351</v>
-      </c>
-      <c r="I19" s="4" t="s">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K23" s="3">
+        <v>44355</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H20" s="3">
-        <v>44352</v>
-      </c>
-      <c r="I20" s="4" t="s">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K24" s="3">
+        <v>44356</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H21" s="3">
-        <v>44353</v>
-      </c>
-      <c r="I21" s="4" t="s">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K25" s="3">
+        <v>44357</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H22" s="3">
-        <v>44354</v>
-      </c>
-      <c r="I22" s="4" t="s">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K26" s="3">
+        <v>44358</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H23" s="3">
-        <v>44355</v>
-      </c>
-      <c r="I23" s="4" t="s">
+    <row r="27" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K27" s="3">
+        <v>44359</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H24" s="3">
-        <v>44356</v>
-      </c>
-      <c r="I24" s="4" t="s">
+    <row r="28" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K28" s="3">
+        <v>44360</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H25" s="3">
-        <v>44357</v>
-      </c>
-      <c r="I25" s="4" t="s">
+    <row r="29" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K29" s="3">
+        <v>44361</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H26" s="3">
-        <v>44358</v>
-      </c>
-      <c r="I26" s="4" t="s">
+    <row r="30" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K30" s="3">
+        <v>44362</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H27" s="3">
-        <v>44359</v>
-      </c>
-      <c r="I27" s="4" t="s">
+    <row r="31" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K31" s="3">
+        <v>44363</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H28" s="3">
-        <v>44360</v>
-      </c>
-      <c r="I28" s="4" t="s">
+    <row r="32" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K32" s="3">
+        <v>44364</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H29" s="3">
-        <v>44361</v>
-      </c>
-      <c r="I29" s="4" t="s">
+    <row r="33" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K33" s="3">
+        <v>44365</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H30" s="3">
-        <v>44362</v>
-      </c>
-      <c r="I30" s="4" t="s">
+    <row r="34" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K34" s="3">
+        <v>44366</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H31" s="3">
-        <v>44363</v>
-      </c>
-      <c r="I31" s="4" t="s">
+    <row r="35" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K35" s="3">
+        <v>44367</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H32" s="3">
-        <v>44364</v>
-      </c>
-      <c r="I32" s="4" t="s">
+    <row r="36" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K36" s="3">
+        <v>44368</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H33" s="3">
-        <v>44365</v>
-      </c>
-      <c r="I33" s="4" t="s">
+    <row r="37" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K37" s="3">
+        <v>44369</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H34" s="3">
-        <v>44366</v>
-      </c>
-      <c r="I34" s="4" t="s">
+    <row r="38" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K38" s="3">
+        <v>44370</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H35" s="3">
-        <v>44367</v>
-      </c>
-      <c r="I35" s="4" t="s">
+    <row r="39" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K39" s="3">
+        <v>44371</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H36" s="3">
-        <v>44368</v>
-      </c>
-      <c r="I36" s="4" t="s">
+    <row r="40" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K40" s="3">
+        <v>44372</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H37" s="3">
-        <v>44369</v>
-      </c>
-      <c r="I37" s="4" t="s">
+    <row r="41" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K41" s="3">
+        <v>44373</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H38" s="3">
-        <v>44370</v>
-      </c>
-      <c r="I38" s="4" t="s">
+    <row r="42" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K42" s="3">
+        <v>44374</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H39" s="3">
-        <v>44371</v>
-      </c>
-      <c r="I39" s="4" t="s">
+    <row r="43" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K43" s="3">
+        <v>44375</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H40" s="3">
-        <v>44372</v>
-      </c>
-      <c r="I40" s="4" t="s">
+    <row r="44" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K44" s="3">
+        <v>44376</v>
+      </c>
+      <c r="L44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H41" s="3">
-        <v>44373</v>
-      </c>
-      <c r="I41" s="4" t="s">
+    <row r="45" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K45" s="3">
+        <v>44377</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K46" s="3">
+        <v>44378</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K47" s="3">
+        <v>44379</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K48" s="3">
+        <v>44380</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K49" s="3">
+        <v>44381</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H42" s="3">
-        <v>44374</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H43" s="3">
-        <v>44375</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H44" s="3">
-        <v>44376</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H45" s="3">
-        <v>44377</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H46" s="3">
-        <v>44378</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H47" s="3">
-        <v>44379</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H48" s="3">
-        <v>44380</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H49" s="3">
-        <v>44381</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091CDAF2-F086-4F87-83F7-9C1508D3BC8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB0C17-72AA-4521-B1BB-D99D1D43D6BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -41,16 +42,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>期間：</t>
-    <rPh sb="0" eb="2">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/28～7/2</t>
-  </si>
-  <si>
     <t>実施①のスゲージュル：</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
@@ -864,9 +855,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・6月3日（木）～　8月31日（火）→　3ヶ月の予定</t>
+    <t>コースの日付</t>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・6月1日（火）～　8月31日（火）→　3ヶ月の予定</t>
     <rPh sb="6" eb="7">
-      <t>モク</t>
+      <t>カ</t>
     </rPh>
     <rPh sb="16" eb="17">
       <t>カ</t>
@@ -877,6 +875,106 @@
     <rPh sb="24" eb="26">
       <t>ヨテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/1　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/3　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/8　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/10　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/17　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/24　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/15　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/22　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/1　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/6　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/8　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/13　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/15　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/20　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/22　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/27　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/29　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/3　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/5　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/10　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/17　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/19　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/24　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/26　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/31　20:00～21:00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -950,7 +1048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,6 +1062,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,22 +1092,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>65217</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>208612</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>474792</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>84788</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052F9BBF-737B-45EB-833D-DC745EBD1D18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE3DB9B-5756-463B-ACE5-956619D549B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1123,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="2743199"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="5961192" cy="6037913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1329,382 +1433,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
-  <dimension ref="A2:L49"/>
+  <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="12" max="12" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K10" t="s">
+      <c r="G12" s="3">
+        <v>44344</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="K11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44345</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="K12" s="3">
-        <v>44344</v>
-      </c>
-      <c r="L12" s="4" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44346</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="K13" s="3">
-        <v>44345</v>
-      </c>
-      <c r="L13" s="4" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44347</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="K14" s="3">
-        <v>44346</v>
-      </c>
-      <c r="L14" s="4" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44348</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="K15" s="3">
-        <v>44347</v>
-      </c>
-      <c r="L15" s="4" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44349</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="K16" s="3">
-        <v>44348</v>
-      </c>
-      <c r="L16" s="4" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44350</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K17" s="3">
-        <v>44349</v>
-      </c>
-      <c r="L17" s="4" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44351</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K18" s="3">
-        <v>44350</v>
-      </c>
-      <c r="L18" s="4" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="3">
+        <v>44352</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K19" s="3">
-        <v>44351</v>
-      </c>
-      <c r="L19" s="4" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="3">
+        <v>44353</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K20" s="3">
-        <v>44352</v>
-      </c>
-      <c r="L20" s="4" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44354</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K21" s="3">
-        <v>44353</v>
-      </c>
-      <c r="L21" s="4" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44355</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K22" s="3">
-        <v>44354</v>
-      </c>
-      <c r="L22" s="4" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44356</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K23" s="3">
-        <v>44355</v>
-      </c>
-      <c r="L23" s="4" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44357</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K24" s="3">
-        <v>44356</v>
-      </c>
-      <c r="L24" s="4" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44358</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K25" s="3">
-        <v>44357</v>
-      </c>
-      <c r="L25" s="4" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44359</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K26" s="3">
-        <v>44358</v>
-      </c>
-      <c r="L26" s="4" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44360</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K27" s="3">
-        <v>44359</v>
-      </c>
-      <c r="L27" s="4" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="3">
+        <v>44361</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K28" s="3">
-        <v>44360</v>
-      </c>
-      <c r="L28" s="4" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44362</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K29" s="3">
-        <v>44361</v>
-      </c>
-      <c r="L29" s="4" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44363</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K30" s="3">
-        <v>44362</v>
-      </c>
-      <c r="L30" s="4" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44364</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K31" s="3">
-        <v>44363</v>
-      </c>
-      <c r="L31" s="4" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44365</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K32" s="3">
-        <v>44364</v>
-      </c>
-      <c r="L32" s="4" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44366</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K33" s="3">
-        <v>44365</v>
-      </c>
-      <c r="L33" s="4" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="3">
+        <v>44367</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K34" s="3">
-        <v>44366</v>
-      </c>
-      <c r="L34" s="4" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44368</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K35" s="3">
-        <v>44367</v>
-      </c>
-      <c r="L35" s="4" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44369</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K36" s="3">
-        <v>44368</v>
-      </c>
-      <c r="L36" s="4" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G38" s="3">
+        <v>44370</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K37" s="3">
-        <v>44369</v>
-      </c>
-      <c r="L37" s="4" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G39" s="3">
+        <v>44371</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K38" s="3">
-        <v>44370</v>
-      </c>
-      <c r="L38" s="4" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G40" s="3">
+        <v>44372</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K39" s="3">
-        <v>44371</v>
-      </c>
-      <c r="L39" s="4" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G41" s="3">
+        <v>44373</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K40" s="3">
-        <v>44372</v>
-      </c>
-      <c r="L40" s="4" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G42" s="3">
+        <v>44374</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K41" s="3">
-        <v>44373</v>
-      </c>
-      <c r="L41" s="4" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G43" s="3">
+        <v>44375</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K42" s="3">
-        <v>44374</v>
-      </c>
-      <c r="L42" s="4" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G44" s="3">
+        <v>44376</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K43" s="3">
-        <v>44375</v>
-      </c>
-      <c r="L43" s="4" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G45" s="3">
+        <v>44377</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G46" s="3">
+        <v>44378</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G47" s="3">
+        <v>44379</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G48" s="3">
+        <v>44380</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G49" s="3">
+        <v>44381</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K44" s="3">
-        <v>44376</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K45" s="3">
-        <v>44377</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K46" s="3">
-        <v>44378</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K47" s="3">
-        <v>44379</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K48" s="3">
-        <v>44380</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.4">
-      <c r="K49" s="3">
-        <v>44381</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7E79D2-596B-4981-B6A9-9FB8CD64BE7E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB0C17-72AA-4521-B1BB-D99D1D43D6BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856341F6-F291-4C56-9CC5-B0E19109F8C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -939,10 +939,6 @@
   </si>
   <si>
     <t>2021/7/27　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/29　20:00～21:00</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1436,7 +1432,7 @@
   <dimension ref="A2:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1601,7 +1597,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="3">
         <v>44353</v>
@@ -1612,7 +1608,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22" s="3">
         <v>44354</v>
@@ -1623,7 +1619,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G23" s="3">
         <v>44355</v>
@@ -1634,7 +1630,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" s="3">
         <v>44356</v>
@@ -1645,7 +1641,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="3">
         <v>44357</v>
@@ -1656,7 +1652,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3">
         <v>44358</v>
@@ -1667,7 +1663,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G27" s="3">
         <v>44359</v>
@@ -1678,7 +1674,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28" s="3">
         <v>44360</v>
@@ -1689,7 +1685,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G29" s="3">
         <v>44361</v>
@@ -1700,7 +1696,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G30" s="3">
         <v>44362</v>
@@ -1711,7 +1707,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G31" s="3">
         <v>44363</v>
@@ -1722,7 +1718,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G32" s="3">
         <v>44364</v>
@@ -1733,7 +1729,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G33" s="3">
         <v>44365</v>
@@ -1744,7 +1740,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G34" s="3">
         <v>44366</v>
@@ -1755,7 +1751,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G35" s="3">
         <v>44367</v>
@@ -1765,9 +1761,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="G36" s="3">
         <v>44368</v>
       </c>
@@ -1776,9 +1770,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B37" s="5"/>
       <c r="G37" s="3">
         <v>44369</v>
       </c>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856341F6-F291-4C56-9CC5-B0E19109F8C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30751234-9086-4C84-8723-3F13DF240691}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -878,99 +878,105 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2021/6/1　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/6/3　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/6/8　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/6/10　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/6/17　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/6/24　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/6/15　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/6/22　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/1　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/6　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/8　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/13　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/15　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/20　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/22　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/27　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/3　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/5　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/10　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/17　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/19　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/24　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/26　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/31　20:00～21:00</t>
+    <t>2021/6/1（火）　20:00～21:00</t>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/8（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/15（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/22（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/6（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/13（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/20（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/27（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/3（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/3（木）　20:00～21:00</t>
+    <rPh sb="9" eb="10">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/10（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/17（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/6/24（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/1（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/8（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/15（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/7/22（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/5（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/19（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/26（木）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/10（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/17（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/24（火）　20:00～21:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/31（火）　20:00～21:00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1432,7 +1438,7 @@
   <dimension ref="A2:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1509,7 +1515,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3">
         <v>44345</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="3">
         <v>44346</v>
@@ -1531,7 +1537,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G15" s="3">
         <v>44347</v>
@@ -1542,7 +1548,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3">
         <v>44348</v>
@@ -1553,7 +1559,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G17" s="3">
         <v>44349</v>
@@ -1564,7 +1570,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G18" s="3">
         <v>44350</v>
@@ -1575,7 +1581,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G19" s="3">
         <v>44351</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G20" s="3">
         <v>44352</v>
@@ -1597,7 +1603,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G21" s="3">
         <v>44353</v>
@@ -1608,7 +1614,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G22" s="3">
         <v>44354</v>
@@ -1619,7 +1625,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G23" s="3">
         <v>44355</v>
@@ -1630,7 +1636,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G24" s="3">
         <v>44356</v>
@@ -1641,7 +1647,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G25" s="3">
         <v>44357</v>
@@ -1652,7 +1658,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G26" s="3">
         <v>44358</v>
@@ -1663,7 +1669,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G27" s="3">
         <v>44359</v>
@@ -1674,7 +1680,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G28" s="3">
         <v>44360</v>
@@ -1696,7 +1702,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G30" s="3">
         <v>44362</v>
@@ -1707,7 +1713,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G31" s="3">
         <v>44363</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G32" s="3">
         <v>44364</v>
@@ -1729,7 +1735,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G33" s="3">
         <v>44365</v>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" s="3">
         <v>44366</v>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3256173A-5678-41E8-9B0F-BE851E9C4134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D896E09-EBE4-4541-AEFD-A82CDF9AEF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="会話内容" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -976,6 +976,23 @@
     <t>実施②のスケジュール：</t>
     <rPh sb="0" eb="2">
       <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コース内容</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介と知らない人に話しかける場面についての会話</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1094,15 +1111,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>474792</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>84788</xdr:rowOff>
+      <xdr:colOff>541467</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1125,8 +1142,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="66675" y="4257675"/>
+          <a:ext cx="5961192" cy="6037913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>607638</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23C5D09-3BC0-4FE8-9E47-E5E01E05B38F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5961192" cy="6037913"/>
+          <a:ext cx="15695238" cy="4123809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,13 +1499,14 @@
   <dimension ref="A2:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
     <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -1495,6 +1557,9 @@
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1505,6 +1570,9 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
         <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
       </c>
       <c r="G12" s="3">
         <v>44344</v>
@@ -1892,7 +1960,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D896E09-EBE4-4541-AEFD-A82CDF9AEF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F855CC3-98E9-42EF-BA44-9EFB34105549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -993,6 +993,179 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長い自己紹介、会話を聞く</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話を聞く、尊敬語の文法・文型を学習</t>
+    <rPh sb="0" eb="2">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ソンケイゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尊敬語の文法・文型を学習、尊敬語を使いて会話の練習</t>
+    <rPh sb="13" eb="16">
+      <t>ソンケイゴ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第11課～第14課（リカバリプラン）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第15課～第18課（リカバリプラン）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第19課～第22課（リカバリプラン）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第23課～第26課（リカバリプラン）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第27課～第30課（リカバリプラン）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第31課～第40課（リカバリプラン）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第41課～第48課（リカバリプラン）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1024,7 +1197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,6 +1207,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,8 +1271,17 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,40 +1690,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
-  <dimension ref="A2:H49"/>
+  <dimension ref="A2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="48.375" customWidth="1"/>
     <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1537,7 +1731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>41</v>
       </c>
@@ -1545,7 +1739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -1553,11 +1747,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1567,87 +1761,129 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
       </c>
       <c r="G12" s="3">
         <v>44344</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="5" t="s">
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
       </c>
       <c r="G13" s="3">
         <v>44345</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="5" t="s">
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
         <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
       </c>
       <c r="G14" s="3">
         <v>44346</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="5" t="s">
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="7" t="s">
         <v>54</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
       </c>
       <c r="G15" s="3">
         <v>44347</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="3">
         <v>44348</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="3">
         <v>44349</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="3">
         <v>44350</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
         <v>56</v>
       </c>
@@ -1658,7 +1894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>57</v>
       </c>
@@ -1669,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1680,7 +1916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
         <v>58</v>
       </c>
@@ -1691,7 +1927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
@@ -1702,7 +1938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
@@ -1713,7 +1949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
@@ -1724,7 +1960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
@@ -1735,7 +1971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
@@ -1746,7 +1982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
@@ -1757,7 +1993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
@@ -1767,8 +2003,11 @@
       <c r="H29" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
@@ -1778,8 +2017,11 @@
       <c r="H30" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
         <v>65</v>
       </c>
@@ -1789,8 +2031,11 @@
       <c r="H31" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
         <v>62</v>
       </c>
@@ -1800,8 +2045,11 @@
       <c r="H32" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
         <v>66</v>
       </c>
@@ -1811,8 +2059,11 @@
       <c r="H33" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -1822,8 +2073,11 @@
       <c r="H34" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
         <v>67</v>
       </c>
@@ -1833,8 +2087,11 @@
       <c r="H35" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="5"/>
       <c r="G36" s="3">
         <v>44368</v>
@@ -1843,7 +2100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
       <c r="G37" s="3">
         <v>44369</v>
@@ -1852,7 +2109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G38" s="3">
         <v>44370</v>
       </c>
@@ -1860,7 +2117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G39" s="3">
         <v>44371</v>
       </c>
@@ -1868,7 +2125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G40" s="3">
         <v>44372</v>
       </c>
@@ -1876,7 +2133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G41" s="3">
         <v>44373</v>
       </c>
@@ -1884,7 +2141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G42" s="3">
         <v>44374</v>
       </c>
@@ -1892,7 +2149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G43" s="3">
         <v>44375</v>
       </c>
@@ -1900,7 +2157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G44" s="3">
         <v>44376</v>
       </c>
@@ -1908,7 +2165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G45" s="3">
         <v>44377</v>
       </c>
@@ -1916,7 +2173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G46" s="3">
         <v>44378</v>
       </c>
@@ -1924,7 +2181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G47" s="3">
         <v>44379</v>
       </c>
@@ -1932,7 +2189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G48" s="3">
         <v>44380</v>
       </c>
@@ -1960,7 +2217,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F855CC3-98E9-42EF-BA44-9EFB34105549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4A38E-5B20-4EFF-9FCC-1C217502093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1166,6 +1166,32 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①長く話しを聞いて、先生から問題を回答しました、
+②スクリプトの内容をシャドーイングしました。</t>
+    <rPh sb="1" eb="2">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1197,7 +1223,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1207,12 +1233,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1271,17 +1291,20 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1690,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
-  <dimension ref="A2:I49"/>
+  <dimension ref="A2:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1702,7 +1725,7 @@
     <col min="2" max="2" width="33.875" customWidth="1"/>
     <col min="3" max="3" width="48.375" customWidth="1"/>
     <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -1748,10 +1771,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1762,10 +1785,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D12" t="s">
@@ -1774,7 +1797,7 @@
       <c r="G12" s="3">
         <v>44344</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I12" t="s">
@@ -1782,10 +1805,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D13" t="s">
@@ -1794,7 +1817,7 @@
       <c r="G13" s="3">
         <v>44345</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I13" t="s">
@@ -1802,10 +1825,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D14" t="s">
@@ -1814,7 +1837,7 @@
       <c r="G14" s="3">
         <v>44346</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I14" t="s">
@@ -1822,10 +1845,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
@@ -1834,78 +1857,90 @@
       <c r="G15" s="3">
         <v>44347</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="6" t="s">
         <v>46</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
       </c>
       <c r="G16" s="3">
         <v>44348</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="3">
         <v>44349</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="3">
         <v>44350</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="3">
         <v>44351</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="3">
         <v>44352</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1916,7 +1951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
         <v>58</v>
       </c>
@@ -1927,7 +1962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
@@ -1938,7 +1973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
@@ -1949,7 +1984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
@@ -1960,7 +1995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
@@ -1971,7 +2006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
@@ -1982,7 +2017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
@@ -1993,7 +2028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
@@ -2003,11 +2038,14 @@
       <c r="H29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
@@ -2017,11 +2055,14 @@
       <c r="H30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
         <v>65</v>
       </c>
@@ -2035,7 +2076,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
         <v>62</v>
       </c>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A4A38E-5B20-4EFF-9FCC-1C217502093C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58989170-E984-447F-9DF3-9C8C37F7323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1272,7 +1272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,6 +1304,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1715,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1891,11 +1894,8 @@
       <c r="G17" s="3">
         <v>44349</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
@@ -1905,11 +1905,8 @@
       <c r="G18" s="3">
         <v>44350</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
@@ -1919,11 +1916,8 @@
       <c r="G19" s="3">
         <v>44351</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
@@ -1933,11 +1927,8 @@
       <c r="G20" s="3">
         <v>44352</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58989170-E984-447F-9DF3-9C8C37F7323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B33538-A629-4B87-B02D-538F92405A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1091,22 +1091,6 @@
   </si>
   <si>
     <t>第19課～第22課（リカバリプラン）</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第23課～第26課（リカバリプラン）</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
@@ -1194,6 +1178,19 @@
       <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①長い自己紹介をしました。</t>
+    <rPh sb="1" eb="2">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジコショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第23課～第26課（リカバリプラン）</t>
   </si>
 </sst>
 </file>
@@ -1718,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1872,7 +1869,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>75</v>
@@ -1888,8 +1885,14 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
       </c>
       <c r="G17" s="3">
         <v>44349</v>
@@ -2063,8 +2066,11 @@
       <c r="H31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="7" t="s">
         <v>78</v>
+      </c>
+      <c r="J31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
@@ -2077,11 +2083,14 @@
       <c r="H32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
         <v>66</v>
       </c>
@@ -2091,11 +2100,14 @@
       <c r="H33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2106,10 +2118,10 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
         <v>67</v>
       </c>
@@ -2120,10 +2132,10 @@
         <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="5"/>
       <c r="G36" s="3">
         <v>44368</v>
@@ -2132,7 +2144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
       <c r="G37" s="3">
         <v>44369</v>
@@ -2141,7 +2153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G38" s="3">
         <v>44370</v>
       </c>
@@ -2149,7 +2161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G39" s="3">
         <v>44371</v>
       </c>
@@ -2157,7 +2169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G40" s="3">
         <v>44372</v>
       </c>
@@ -2165,7 +2177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G41" s="3">
         <v>44373</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G42" s="3">
         <v>44374</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G43" s="3">
         <v>44375</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G44" s="3">
         <v>44376</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G45" s="3">
         <v>44377</v>
       </c>
@@ -2205,7 +2217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G46" s="3">
         <v>44378</v>
       </c>
@@ -2213,7 +2225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G47" s="3">
         <v>44379</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G48" s="3">
         <v>44380</v>
       </c>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B33538-A629-4B87-B02D-538F92405A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF28FD8F-2367-4BE4-80DB-0FF7574BD25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -637,189 +637,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第49課～第50課の単語と文法</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第51課～第52課の単語と文法</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第53課～第54課の単語と文法</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第55課～第56課の単語と文法</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第57課～第58課の単語と文法</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第59課～第60課の単語と文法</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第61課～第62課の単語と文法</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第63課～第64課の単語と文法</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>復習</t>
-    <rPh sb="0" eb="2">
-      <t>フクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1191,6 +1008,253 @@
   </si>
   <si>
     <t>第23課～第26課（リカバリプラン）</t>
+  </si>
+  <si>
+    <t>中級の第1課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第2課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第3課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第4課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第5課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第6課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第7課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第8課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第9課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第10課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第11課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第12課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第13課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1715,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1748,15 +1812,15 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
@@ -1764,7 +1828,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1772,10 +1836,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
@@ -1786,13 +1850,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G12" s="3">
         <v>44344</v>
@@ -1801,18 +1865,18 @@
         <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G13" s="3">
         <v>44345</v>
@@ -1821,18 +1885,18 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G14" s="3">
         <v>44346</v>
@@ -1841,18 +1905,18 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G15" s="3">
         <v>44347</v>
@@ -1861,18 +1925,18 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G16" s="3">
         <v>44348</v>
@@ -1881,18 +1945,18 @@
         <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G17" s="3">
         <v>44349</v>
@@ -1903,7 +1967,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G18" s="3">
         <v>44350</v>
@@ -1914,7 +1978,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G19" s="3">
         <v>44351</v>
@@ -1925,7 +1989,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G20" s="3">
         <v>44352</v>
@@ -1936,7 +2000,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G21" s="3">
         <v>44353</v>
@@ -1947,7 +2011,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G22" s="3">
         <v>44354</v>
@@ -1958,7 +2022,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G23" s="3">
         <v>44355</v>
@@ -1969,7 +2033,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G24" s="3">
         <v>44356</v>
@@ -1980,7 +2044,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G25" s="3">
         <v>44357</v>
@@ -1991,7 +2055,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G26" s="3">
         <v>44358</v>
@@ -2002,7 +2066,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" s="3">
         <v>44359</v>
@@ -2013,7 +2077,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G28" s="3">
         <v>44360</v>
@@ -2024,7 +2088,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G29" s="3">
         <v>44361</v>
@@ -2033,15 +2097,15 @@
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G30" s="3">
         <v>44362</v>
@@ -2050,15 +2114,15 @@
         <v>25</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G31" s="3">
         <v>44363</v>
@@ -2067,15 +2131,15 @@
         <v>26</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G32" s="3">
         <v>44364</v>
@@ -2084,15 +2148,15 @@
         <v>27</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G33" s="3">
         <v>44365</v>
@@ -2101,15 +2165,15 @@
         <v>28</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G34" s="3">
         <v>44366</v>
@@ -2118,12 +2182,12 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G35" s="3">
         <v>44367</v>
@@ -2132,7 +2196,7 @@
         <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
@@ -2141,7 +2205,7 @@
         <v>44368</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
@@ -2150,7 +2214,7 @@
         <v>44369</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
@@ -2158,7 +2222,7 @@
         <v>44370</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
@@ -2166,7 +2230,7 @@
         <v>44371</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
@@ -2174,7 +2238,7 @@
         <v>44372</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
@@ -2182,7 +2246,7 @@
         <v>44373</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
@@ -2190,7 +2254,7 @@
         <v>44374</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
@@ -2198,7 +2262,7 @@
         <v>44375</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
@@ -2206,7 +2270,7 @@
         <v>44376</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
@@ -2214,7 +2278,7 @@
         <v>44377</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
@@ -2222,7 +2286,7 @@
         <v>44378</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
@@ -2230,7 +2294,7 @@
         <v>44379</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
@@ -2238,7 +2302,7 @@
         <v>44380</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.4">
@@ -2246,13 +2310,13 @@
         <v>44381</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF28FD8F-2367-4BE4-80DB-0FF7574BD25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7337746-9FB0-4FA8-A0C8-F5E015C2C30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1200,59 +1200,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中級の第11課の単語と文法</t>
+    <t>復習</t>
     <rPh sb="0" eb="2">
-      <t>チュウキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第12課の単語と文法</t>
-    <rPh sb="0" eb="2">
-      <t>チュウキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第13課の単語と文法</t>
-    <rPh sb="0" eb="2">
-      <t>チュウキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ブンポウ</t>
+      <t>フクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1779,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1966,8 +1916,12 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" t="s">
+        <v>66</v>
       </c>
       <c r="G18" s="3">
         <v>44350</v>
@@ -2294,7 +2248,7 @@
         <v>44379</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
@@ -2302,7 +2256,7 @@
         <v>44380</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7337746-9FB0-4FA8-A0C8-F5E015C2C30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56D23A-5BC8-44C2-89AD-89F818EC7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1204,6 +1204,20 @@
     <rPh sb="0" eb="2">
       <t>フクシュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話テスト＋課題</t>
+    <rPh sb="0" eb="2">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1729,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1919,7 +1933,9 @@
       <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
@@ -1931,8 +1947,14 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
       </c>
       <c r="G19" s="3">
         <v>44351</v>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56D23A-5BC8-44C2-89AD-89F818EC7ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B188903-9A96-4E10-89F2-D24717C6152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
-    <sheet name="スケジュール" sheetId="2" r:id="rId1"/>
+    <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
     <sheet name="会話内容" sheetId="3" r:id="rId2"/>
+    <sheet name="7月スケジュール" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1218,6 +1219,254 @@
   </si>
   <si>
     <t>プロフィール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第46課（再々リカバリ）</t>
+    <rPh sb="5" eb="7">
+      <t>サイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第47課（再々リカバリ）</t>
+    <rPh sb="5" eb="7">
+      <t>サイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第40、41課（再々リカバリ）</t>
+    <rPh sb="8" eb="10">
+      <t>サイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第42、43課（再々リカバリ）</t>
+    <rPh sb="8" eb="10">
+      <t>サイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第44、45課（再々リカバリ）</t>
+    <rPh sb="8" eb="10">
+      <t>サイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第48課（再々リカバリ）</t>
+    <rPh sb="5" eb="7">
+      <t>サイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強内容</t>
+    <rPh sb="0" eb="4">
+      <t>ベンキョウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行結果</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20:00～21:00　会話コース</t>
+    <rPh sb="12" eb="14">
+      <t>カイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第11課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第12課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第13課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第14課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第15課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第16課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第1～4課の復習</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第5～8課の復習</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第9～12課の復習</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第13～16課の復習</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクシュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1225,7 +1474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1246,6 +1495,15 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1297,7 +1555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,6 +1591,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2216,6 +2477,9 @@
       <c r="H40" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="I40" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G41" s="3">
@@ -2224,6 +2488,9 @@
       <c r="H41" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="I41" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G42" s="3">
@@ -2232,6 +2499,9 @@
       <c r="H42" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="I42" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G43" s="3">
@@ -2240,6 +2510,9 @@
       <c r="H43" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="I43" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G44" s="3">
@@ -2248,6 +2521,9 @@
       <c r="H44" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G45" s="3">
@@ -2255,6 +2531,9 @@
       </c>
       <c r="H45" s="4" t="s">
         <v>85</v>
+      </c>
+      <c r="I45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
@@ -2310,4 +2589,317 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D129320B-CF77-4F05-91FE-395EDF2F82C4}">
+  <dimension ref="B2:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="3">
+        <v>44382</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="3">
+        <v>44383</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>44384</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>44385</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>44386</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <v>44387</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>44388</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>44389</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
+        <v>44390</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <v>44391</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>44392</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>44393</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>44394</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>44395</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>44396</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <v>44397</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <v>44398</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>44399</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="3">
+        <v>44400</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="3">
+        <v>44401</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="3">
+        <v>44402</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
+        <v>44403</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="3">
+        <v>44404</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="3">
+        <v>44405</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <v>44406</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="3">
+        <v>44407</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <v>44408</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D40" xr:uid="{E2BFBFA2-AC17-411D-A8E5-371DC3761CF3}">
+      <formula1>"未着手、勉強中、完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D29" xr:uid="{13ADCA88-F836-44BF-A78B-FCFF4D2AC716}">
+      <formula1>"未着手,勉強中,完了"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B188903-9A96-4E10-89F2-D24717C6152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAB7685-44D1-4027-9B74-ED578F6C162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -2004,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2480,6 +2480,9 @@
       <c r="I40" t="s">
         <v>91</v>
       </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G41" s="3">
@@ -2491,6 +2494,9 @@
       <c r="I41" t="s">
         <v>92</v>
       </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G42" s="3">
@@ -2501,6 +2507,9 @@
       </c>
       <c r="I42" t="s">
         <v>93</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
@@ -2595,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D129320B-CF77-4F05-91FE-395EDF2F82C4}">
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAB7685-44D1-4027-9B74-ED578F6C162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7408BBAF-B2B8-4C61-BFA1-BBD471EE3D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -2005,7 +2005,7 @@
   <dimension ref="A2:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2477,10 +2477,10 @@
       <c r="H40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2491,10 +2491,10 @@
       <c r="H41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2505,10 +2505,10 @@
       <c r="H42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2519,8 +2519,11 @@
       <c r="H43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="7" t="s">
         <v>89</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7408BBAF-B2B8-4C61-BFA1-BBD471EE3D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE33E3C-4D38-4D74-960A-BE53B45544A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1466,6 +1466,13 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2533,8 +2540,11 @@
       <c r="H44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE33E3C-4D38-4D74-960A-BE53B45544A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29788DE-3CC3-4B14-9E8C-54F2390BD812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -2012,7 +2012,7 @@
   <dimension ref="A2:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2554,8 +2554,11 @@
       <c r="H45" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="7" t="s">
         <v>94</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29788DE-3CC3-4B14-9E8C-54F2390BD812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB5DFA-501D-4F30-831A-859F1CC038B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -701,26 +701,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2021/7/6（火）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/13（火）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/20（火）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/27（火）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/3（火）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2021/6/3（木）　20:00～21:00</t>
     <rPh sb="9" eb="10">
       <t>モク</t>
@@ -737,50 +717,6 @@
   </si>
   <si>
     <t>2021/6/24（木）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/1（木）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/8（木）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/15（木）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/7/22（木）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/5（木）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/19（木）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/26（木）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/10（火）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/17（火）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/24（火）　20:00～21:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021/8/31（火）　20:00～21:00</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1473,6 +1409,22 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>料理に関して会話</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1562,7 +1514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,11 +1554,78 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2011,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0FC23-CF86-47B8-A2A3-70E3F17A1F51}">
   <dimension ref="A2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2044,10 +2063,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -2071,7 +2090,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
@@ -2085,10 +2104,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3">
         <v>44344</v>
@@ -2097,18 +2116,18 @@
         <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G13" s="3">
         <v>44345</v>
@@ -2117,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -2125,10 +2144,10 @@
         <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3">
         <v>44346</v>
@@ -2137,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3">
         <v>44347</v>
@@ -2157,7 +2176,7 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -2165,10 +2184,10 @@
         <v>37</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3">
         <v>44348</v>
@@ -2177,18 +2196,18 @@
         <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G17" s="3">
         <v>44349</v>
@@ -2202,10 +2221,10 @@
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G18" s="3">
         <v>44350</v>
@@ -2216,13 +2235,13 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G19" s="3">
         <v>44351</v>
@@ -2232,9 +2251,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="G20" s="3">
         <v>44352</v>
       </c>
@@ -2243,9 +2260,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="G21" s="3">
         <v>44353</v>
       </c>
@@ -2254,9 +2269,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B22" s="5"/>
       <c r="G22" s="3">
         <v>44354</v>
       </c>
@@ -2265,9 +2278,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="G23" s="3">
         <v>44355</v>
       </c>
@@ -2276,9 +2287,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="G24" s="3">
         <v>44356</v>
       </c>
@@ -2287,9 +2296,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="B25" s="5"/>
       <c r="G25" s="3">
         <v>44357</v>
       </c>
@@ -2298,9 +2305,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="G26" s="3">
         <v>44358</v>
       </c>
@@ -2309,9 +2314,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="G27" s="3">
         <v>44359</v>
       </c>
@@ -2320,9 +2323,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="G28" s="3">
         <v>44360</v>
       </c>
@@ -2331,9 +2332,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="B29" s="5"/>
       <c r="G29" s="3">
         <v>44361</v>
       </c>
@@ -2341,16 +2340,14 @@
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="G30" s="3">
         <v>44362</v>
       </c>
@@ -2358,16 +2355,14 @@
         <v>25</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="B31" s="5"/>
       <c r="G31" s="3">
         <v>44363</v>
       </c>
@@ -2375,16 +2370,14 @@
         <v>26</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="B32" s="5"/>
       <c r="G32" s="3">
         <v>44364</v>
       </c>
@@ -2392,16 +2385,14 @@
         <v>27</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J32" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="B33" s="5"/>
       <c r="G33" s="3">
         <v>44365</v>
       </c>
@@ -2409,16 +2400,14 @@
         <v>28</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="B34" s="5"/>
       <c r="G34" s="3">
         <v>44366</v>
       </c>
@@ -2426,13 +2415,11 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="B35" s="5"/>
       <c r="G35" s="3">
         <v>44367</v>
       </c>
@@ -2440,7 +2427,7 @@
         <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
@@ -2449,7 +2436,7 @@
         <v>44368</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
@@ -2458,7 +2445,7 @@
         <v>44369</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
@@ -2466,7 +2453,7 @@
         <v>44370</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
@@ -2474,7 +2461,7 @@
         <v>44371</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
@@ -2482,13 +2469,13 @@
         <v>44372</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
@@ -2496,13 +2483,13 @@
         <v>44373</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
@@ -2510,13 +2497,13 @@
         <v>44374</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
@@ -2524,13 +2511,13 @@
         <v>44375</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
@@ -2538,13 +2525,13 @@
         <v>44376</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
@@ -2552,13 +2539,13 @@
         <v>44377</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
@@ -2566,7 +2553,7 @@
         <v>44378</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
@@ -2574,7 +2561,7 @@
         <v>44379</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
@@ -2582,7 +2569,7 @@
         <v>44380</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="7:8" x14ac:dyDescent="0.4">
@@ -2618,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D129320B-CF77-4F05-91FE-395EDF2F82C4}">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2636,295 +2623,350 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="13">
+        <v>44378</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="3">
-        <v>44382</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
-        <v>44383</v>
+        <v>44379</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
-        <v>44384</v>
+        <v>44380</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
-        <v>44385</v>
+        <v>44381</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
-        <v>44386</v>
+        <v>44382</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
-        <v>44387</v>
+        <v>44383</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
-        <v>44388</v>
+        <v>44384</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
-        <v>44389</v>
+        <v>44385</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
-        <v>44390</v>
+        <v>44386</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
-        <v>44391</v>
+        <v>44387</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
-        <v>44392</v>
+        <v>44388</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
-        <v>44393</v>
+        <v>44389</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
-        <v>44394</v>
+        <v>44390</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
-        <v>44395</v>
+        <v>44391</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
-        <v>44396</v>
+        <v>44392</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
-        <v>44397</v>
+        <v>44393</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
-        <v>44398</v>
+        <v>44394</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
-        <v>44399</v>
+        <v>44395</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="3">
-        <v>44400</v>
+        <v>44396</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="3">
-        <v>44401</v>
+        <v>44397</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
-        <v>44402</v>
+        <v>44398</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="3">
-        <v>44403</v>
+        <v>44399</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="3">
-        <v>44404</v>
+        <v>44400</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="3">
-        <v>44405</v>
+        <v>44401</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
-        <v>44406</v>
+        <v>44402</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
-        <v>44407</v>
+        <v>44403</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
-        <v>44408</v>
+        <v>44404</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <v>44405</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <v>44406</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="3">
+        <v>44407</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="3">
+        <v>44408</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E4">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D40" xr:uid="{E2BFBFA2-AC17-411D-A8E5-371DC3761CF3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D44" xr:uid="{E2BFBFA2-AC17-411D-A8E5-371DC3761CF3}">
       <formula1>"未着手、勉強中、完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D29" xr:uid="{13ADCA88-F836-44BF-A78B-FCFF4D2AC716}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D33" xr:uid="{13ADCA88-F836-44BF-A78B-FCFF4D2AC716}">
       <formula1>"未着手,勉強中,完了"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB5DFA-501D-4F30-831A-859F1CC038B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBD57C6-FB84-48D7-B94D-B7C6FBB66F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1425,6 +1425,39 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強中</t>
+  </si>
+  <si>
+    <t>勉強中です、まとめをしません。</t>
+    <rPh sb="0" eb="3">
+      <t>ベンキョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難しいと思いました。</t>
+    <rPh sb="0" eb="1">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初級内容を復習</t>
+    <rPh sb="0" eb="2">
+      <t>ショキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1561,59 +1594,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -2608,7 +2592,7 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2647,34 +2631,46 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="3">
+      <c r="B4" s="13">
         <v>44379</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="3">
+      <c r="B5" s="13">
         <v>44380</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="3">
+      <c r="B6" s="13">
         <v>44381</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
@@ -2683,8 +2679,12 @@
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
@@ -2949,11 +2949,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:E4">
+  <conditionalFormatting sqref="B4:E4 E5">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
@@ -2967,6 +2967,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBD57C6-FB84-48D7-B94D-B7C6FBB66F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE823EC-256A-4309-BF6A-0F9EE73CB966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1458,6 +1458,19 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大好き料理についての会話</t>
+    <rPh sb="0" eb="2">
+      <t>ダイス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2592,7 +2605,7 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2687,14 +2700,18 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="3">
+      <c r="B8" s="13">
         <v>44383</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="3">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE823EC-256A-4309-BF6A-0F9EE73CB966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F6BD2C-489E-447C-82EA-81695BE3CCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1425,16 +1425,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カイワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勉強中</t>
-  </si>
-  <si>
-    <t>勉強中です、まとめをしません。</t>
-    <rPh sb="0" eb="3">
-      <t>ベンキョウチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2605,7 +2595,7 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2654,7 +2644,7 @@
         <v>94</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
@@ -2668,7 +2658,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
@@ -2682,22 +2672,20 @@
         <v>94</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="3">
+      <c r="B7" s="13">
         <v>44382</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="D7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="13">
@@ -2710,18 +2698,20 @@
         <v>94</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="3">
+      <c r="B9" s="13">
         <v>44384</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" s="3">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F6BD2C-489E-447C-82EA-81695BE3CCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2087F67B-E842-4522-8F99-9E943FE51592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="101">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1461,6 +1461,16 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>カイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強中</t>
+  </si>
+  <si>
+    <t>纏めがまだです。</t>
+    <rPh sb="0" eb="1">
+      <t>マト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2595,7 +2605,7 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2714,34 +2724,46 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
+      <c r="B10" s="13">
         <v>44385</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="3">
+      <c r="B11" s="13">
         <v>44386</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
+      <c r="B12" s="13">
         <v>44387</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
@@ -2750,7 +2772,9 @@
       <c r="C13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2087F67B-E842-4522-8F99-9E943FE51592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4745E4B-C9B8-4311-A04D-3433350E77B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1465,14 +1465,157 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勉強中</t>
-  </si>
-  <si>
     <t>纏めがまだです。</t>
     <rPh sb="0" eb="1">
       <t>マト</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/15のリカバリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全社会のため、参加できない</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンシャカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第6、７課の単語と文法</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/20のリカバリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強した、纏めまだ</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20:00～21:00の会話コース
+中級の第9課の単語と文法（整理を含まない）</t>
+    <rPh sb="31" eb="33">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第3課の纏め
+中級の第10課の単語と文法（整理を含まない）</t>
+    <rPh sb="7" eb="8">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第4課の纏め
+中級の第11課の単語と文法（整理を含まない）</t>
+    <rPh sb="7" eb="8">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第5課の纏め
+中級の第12課の単語と文法（整理を含まない）</t>
+    <rPh sb="7" eb="8">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第6課の纏め
+中級の第13課の単語と文法（整理を含まない）</t>
+    <rPh sb="7" eb="8">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第7課の纏め
+中級の第14課の単語と文法（整理を含まない）</t>
+    <rPh sb="7" eb="8">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第8課の纏め
+中級の第15課の単語と文法（整理を含まない）</t>
+    <rPh sb="7" eb="8">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同左
+中級の第16課の単語と文法（整理を含まない）</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第9課の纏め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同左
+中級の第10課の纏め</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第11課の纏め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第12課の纏め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第13課の纏め</t>
+  </si>
+  <si>
+    <t>中級の第14課の纏め</t>
+  </si>
+  <si>
+    <t>中級の第15課の纏め</t>
+  </si>
+  <si>
+    <t>中級の第16課の纏め</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,6 +1745,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2602,10 +2748,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D129320B-CF77-4F05-91FE-395EDF2F82C4}">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2613,6 +2762,9 @@
     <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="6" max="6" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
@@ -2748,7 +2900,7 @@
         <v>94</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
@@ -2762,20 +2914,20 @@
         <v>94</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
+      <c r="B13" s="13">
         <v>44388</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="D13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
@@ -2795,7 +2947,9 @@
         <v>82</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
@@ -2807,17 +2961,22 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="13">
         <v>44392</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <v>44393</v>
       </c>
@@ -2826,8 +2985,14 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
         <v>44394</v>
       </c>
@@ -2836,8 +3001,14 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <v>44395</v>
       </c>
@@ -2846,8 +3017,14 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="3">
         <v>44396</v>
       </c>
@@ -2856,8 +3033,11 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B22" s="3">
         <v>44397</v>
       </c>
@@ -2866,8 +3046,11 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H22" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>44398</v>
       </c>
@@ -2876,8 +3059,11 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H23" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B24" s="3">
         <v>44399</v>
       </c>
@@ -2886,8 +3072,11 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H24" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B25" s="3">
         <v>44400</v>
       </c>
@@ -2896,8 +3085,11 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H25" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B26" s="3">
         <v>44401</v>
       </c>
@@ -2906,8 +3098,11 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H26" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>44402</v>
       </c>
@@ -2916,8 +3111,11 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H27" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
         <v>44403</v>
       </c>
@@ -2926,8 +3124,11 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H28" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
         <v>44404</v>
       </c>
@@ -2936,8 +3137,11 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H29" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
         <v>44405</v>
       </c>
@@ -2946,8 +3150,11 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H30" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <v>44406</v>
       </c>
@@ -2956,8 +3163,11 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H31" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
         <v>44407</v>
       </c>
@@ -2966,8 +3176,11 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="H32" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
         <v>44408</v>
       </c>
@@ -2976,6 +3189,41 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
+      <c r="H33" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" s="3">
+        <v>44409</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="3">
+        <v>44410</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="3">
+        <v>44411</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="3">
+        <v>44412</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4745E4B-C9B8-4311-A04D-3433350E77B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B095264-F04C-4421-93C3-D4C0F3FCA2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1519,25 +1519,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20:00～21:00の会話コース
-中級の第9課の単語と文法（整理を含まない）</t>
-    <rPh sb="31" eb="33">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第3課の纏め
-中級の第10課の単語と文法（整理を含まない）</t>
-    <rPh sb="7" eb="8">
-      <t>マト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中級の第4課の纏め
 中級の第11課の単語と文法（整理を含まない）</t>
     <rPh sb="7" eb="8">
@@ -1616,6 +1597,15 @@
   </si>
   <si>
     <t>中級の第16課の纏め</t>
+  </si>
+  <si>
+    <t>20:00～21:00の会話コース
+中級の第3課の纏め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第9,10課の単語と文法（整理を含まない）</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2754,7 +2744,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3037,20 +3027,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B22" s="3">
+    <row r="22" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B22" s="13">
         <v>44397</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="H22" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="D22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="H22" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>44398</v>
       </c>
@@ -3060,7 +3052,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="H23" s="14" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -3073,7 +3065,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="H24" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -3086,7 +3078,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="H25" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -3099,7 +3091,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="H26" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -3112,7 +3104,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="H27" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -3125,7 +3117,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="H28" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
@@ -3138,7 +3130,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="H29" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
@@ -3151,7 +3143,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="H30" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
@@ -3164,7 +3156,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="H31" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
@@ -3177,7 +3169,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="H32" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -3190,7 +3182,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="H33" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -3198,7 +3190,7 @@
         <v>44409</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -3206,7 +3198,7 @@
         <v>44410</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
@@ -3214,7 +3206,7 @@
         <v>44411</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
@@ -3222,7 +3214,7 @@
         <v>44412</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B095264-F04C-4421-93C3-D4C0F3FCA2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13B02E1-66C6-470E-928D-B6801CA776D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1519,92 +1519,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中級の第4課の纏め
-中級の第11課の単語と文法（整理を含まない）</t>
-    <rPh sb="7" eb="8">
-      <t>マト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第5課の纏め
-中級の第12課の単語と文法（整理を含まない）</t>
-    <rPh sb="7" eb="8">
-      <t>マト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第6課の纏め
-中級の第13課の単語と文法（整理を含まない）</t>
-    <rPh sb="7" eb="8">
-      <t>マト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第7課の纏め
-中級の第14課の単語と文法（整理を含まない）</t>
-    <rPh sb="7" eb="8">
-      <t>マト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第8課の纏め
-中級の第15課の単語と文法（整理を含まない）</t>
-    <rPh sb="7" eb="8">
-      <t>マト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同左
-中級の第16課の単語と文法（整理を含まない）</t>
-    <rPh sb="0" eb="2">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第9課の纏め</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同左
-中級の第10課の纏め</t>
-    <rPh sb="0" eb="2">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第11課の纏め</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第12課の纏め</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第13課の纏め</t>
-  </si>
-  <si>
-    <t>中級の第14課の纏め</t>
-  </si>
-  <si>
-    <t>中級の第15課の纏め</t>
-  </si>
-  <si>
-    <t>中級の第16課の纏め</t>
-  </si>
-  <si>
     <t>20:00～21:00の会話コース
 中級の第3課の纏め</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中級の第9,10課の単語と文法（整理を含まない）</t>
+    <t>中級の第9課の単語と文法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第10課の単語と文法</t>
+  </si>
+  <si>
+    <t>中級の第11課の単語と文法</t>
+  </si>
+  <si>
+    <t>中級の第12課の単語と文法</t>
+  </si>
+  <si>
+    <t>中級の第13課の単語と文法</t>
+  </si>
+  <si>
+    <t>中級の第14課の単語と文法</t>
+  </si>
+  <si>
+    <t>同左</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第15課の単語と文法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第16課の単語と文法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第4課の纏め</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級の第5課の纏め</t>
+  </si>
+  <si>
+    <t>中級の第6課の纏め</t>
+  </si>
+  <si>
+    <t>中級の第7課の纏め</t>
+  </si>
+  <si>
+    <t>中級の第8課の纏め</t>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2738,13 +2711,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D129320B-CF77-4F05-91FE-395EDF2F82C4}">
-  <dimension ref="B2:H37"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2951,7 +2924,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>44392</v>
       </c>
@@ -2966,7 +2939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <v>44393</v>
       </c>
@@ -2982,7 +2955,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
         <v>44394</v>
       </c>
@@ -2998,7 +2971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <v>44395</v>
       </c>
@@ -3014,7 +2987,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="3">
         <v>44396</v>
       </c>
@@ -3027,7 +3000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B22" s="13">
         <v>44397</v>
       </c>
@@ -3039,10 +3012,13 @@
       </c>
       <c r="E22" s="10"/>
       <c r="H22" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+      <c r="I22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>44398</v>
       </c>
@@ -3051,11 +3027,14 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="3">
         <v>44399</v>
       </c>
@@ -3064,11 +3043,14 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="H24" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="H24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="3">
         <v>44400</v>
       </c>
@@ -3077,11 +3059,14 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="H25" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="H25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="3">
         <v>44401</v>
       </c>
@@ -3090,11 +3075,14 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="H26" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="H26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>44402</v>
       </c>
@@ -3103,11 +3091,14 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="H27" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="H27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
         <v>44403</v>
       </c>
@@ -3117,10 +3108,10 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="H28" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
         <v>44404</v>
       </c>
@@ -3130,10 +3121,10 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="H29" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
         <v>44405</v>
       </c>
@@ -3143,10 +3134,10 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="H30" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <v>44406</v>
       </c>
@@ -3159,7 +3150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
         <v>44407</v>
       </c>
@@ -3169,7 +3160,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="H32" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -3182,7 +3173,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="H33" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -3190,7 +3181,7 @@
         <v>44409</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
@@ -3198,7 +3189,7 @@
         <v>44410</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
@@ -3206,7 +3197,7 @@
         <v>44411</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
@@ -3214,7 +3205,7 @@
         <v>44412</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13B02E1-66C6-470E-928D-B6801CA776D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21EC00D-FE6A-44D5-8653-2C4C7F7E5BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -2717,7 +2717,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3107,8 +3107,11 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="9" t="s">
         <v>111</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21EC00D-FE6A-44D5-8653-2C4C7F7E5BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722B2B32-4C7C-44BB-9DAE-F26D83AFD452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1577,6 +1577,19 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語が完了、文法がまだ</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンポウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2714,10 +2727,10 @@
   <dimension ref="B2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3123,8 +3136,11 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="9" t="s">
         <v>112</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
@@ -3138,6 +3154,9 @@
       <c r="E30" s="4"/>
       <c r="H30" s="14" t="s">
         <v>113</v>
+      </c>
+      <c r="I30" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722B2B32-4C7C-44BB-9DAE-F26D83AFD452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0AAF6D-B496-4E7E-810C-E5F87DA41CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -2730,7 +2730,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="9" t="s">
         <v>113</v>
       </c>
       <c r="I30" t="s">
@@ -3168,8 +3168,11 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="9" t="s">
         <v>112</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
@@ -3181,8 +3184,11 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="9" t="s">
         <v>114</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0AAF6D-B496-4E7E-810C-E5F87DA41CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD2F87-0B68-47AE-83E7-05A7C789DE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
     <sheet name="会話内容" sheetId="3" r:id="rId2"/>
     <sheet name="7月スケジュール" sheetId="4" r:id="rId3"/>
+    <sheet name="8月スケジュール" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1558,22 +1559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中級の第4課の纏め</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中級の第5課の纏め</t>
-  </si>
-  <si>
-    <t>中級の第6課の纏め</t>
-  </si>
-  <si>
-    <t>中級の第7課の纏め</t>
-  </si>
-  <si>
-    <t>中級の第8課の纏め</t>
-  </si>
-  <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -1590,6 +1575,22 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語30個以上の勉強</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ベンキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1630,7 +1631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1646,6 +1647,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,7 +1686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1722,14 +1729,227 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2724,13 +2944,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D129320B-CF77-4F05-91FE-395EDF2F82C4}">
-  <dimension ref="B2:I37"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3028,7 +3248,7 @@
         <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
@@ -3044,7 +3264,7 @@
         <v>106</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -3060,7 +3280,7 @@
         <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
@@ -3076,7 +3296,7 @@
         <v>108</v>
       </c>
       <c r="I25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
@@ -3092,7 +3312,7 @@
         <v>109</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
@@ -3108,7 +3328,7 @@
         <v>110</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
@@ -3156,7 +3376,7 @@
         <v>113</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
@@ -3191,7 +3411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
         <v>44408</v>
       </c>
@@ -3200,59 +3420,422 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="H33" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="3">
-        <v>44409</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="3">
-        <v>44410</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="3">
-        <v>44411</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="3">
-        <v>44412</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>119</v>
+      <c r="H33" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E4 E5">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D44" xr:uid="{E2BFBFA2-AC17-411D-A8E5-371DC3761CF3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D33" xr:uid="{13ADCA88-F836-44BF-A78B-FCFF4D2AC716}">
+      <formula1>"未着手,勉強中,完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D40" xr:uid="{E2BFBFA2-AC17-411D-A8E5-371DC3761CF3}">
       <formula1>"未着手、勉強中、完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D33" xr:uid="{13ADCA88-F836-44BF-A78B-FCFF4D2AC716}">
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17CF3A-9FA8-4D8A-9992-6FA10D79FD7F}">
+  <dimension ref="B2:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="14">
+        <v>44410</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="14">
+        <v>44411</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="14">
+        <v>44412</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="14">
+        <v>44413</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="14">
+        <v>44414</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="14">
+        <v>44415</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="14">
+        <v>44416</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="14">
+        <v>44417</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="14">
+        <v>44418</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="14">
+        <v>44419</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="14">
+        <v>44420</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="14">
+        <v>44421</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="14">
+        <v>44422</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="14">
+        <v>44423</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="14">
+        <v>44424</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="14">
+        <v>44425</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="14">
+        <v>44426</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="14">
+        <v>44427</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="14">
+        <v>44428</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="14">
+        <v>44429</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="14">
+        <v>44430</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="14">
+        <v>44431</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="14">
+        <v>44432</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="14">
+        <v>44433</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="14">
+        <v>44434</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="14">
+        <v>44435</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="14">
+        <v>44436</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="14">
+        <v>44437</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="14">
+        <v>44438</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="14">
+        <v>44439</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B3:E3 B4:B32">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:E4 E5">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C10">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C17">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D39" xr:uid="{BD86F332-4F44-40FB-A6BE-95B6276BF5BC}">
+      <formula1>"未着手、勉強中、完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D32" xr:uid="{268DA924-CC18-4D17-A431-84BCCD7794F1}">
       <formula1>"未着手,勉強中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD2F87-0B68-47AE-83E7-05A7C789DE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746AC12-26DE-4998-8C78-AE5AEEB74C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="13800" windowHeight="10185" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="118">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1739,154 +1739,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3430,12 +3283,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E4 E5">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3460,7 +3313,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3491,7 +3344,9 @@
       <c r="C3" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
@@ -3787,12 +3642,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3 B4:B32">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 E5">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="7" priority="29" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",D4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746AC12-26DE-4998-8C78-AE5AEEB74C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C1804-BD37-422E-92D1-1B4DF403CDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="13800" windowHeight="10185" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3313,7 +3313,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3356,7 +3356,9 @@
       <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
@@ -3366,7 +3368,9 @@
       <c r="C5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
@@ -3641,14 +3645,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:E3 B4:B32">
+  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D5">
     <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E4 E5">
+  <conditionalFormatting sqref="E4:E5">
     <cfRule type="containsText" dxfId="7" priority="29" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C1804-BD37-422E-92D1-1B4DF403CDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF57ED-4F68-4729-BDE7-26E048E6FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="118">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3313,7 +3313,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3380,7 +3380,9 @@
       <c r="C6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
@@ -3390,7 +3392,9 @@
       <c r="C7" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
@@ -3400,7 +3404,9 @@
       <c r="C8" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
@@ -3410,7 +3416,9 @@
       <c r="C9" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
@@ -3420,7 +3428,9 @@
       <c r="C10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
@@ -3430,7 +3440,9 @@
       <c r="C11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
@@ -3645,7 +3657,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D5">
+  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D11">
     <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF57ED-4F68-4729-BDE7-26E048E6FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F700A1F-D1CC-41F5-A045-F7E23D25A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3313,7 +3313,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3452,7 +3452,9 @@
       <c r="C12" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
@@ -3462,7 +3464,9 @@
       <c r="C13" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
@@ -3472,7 +3476,9 @@
       <c r="C14" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
@@ -3482,7 +3488,9 @@
       <c r="C15" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
@@ -3492,7 +3500,9 @@
       <c r="C16" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
@@ -3502,7 +3512,9 @@
       <c r="C17" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
@@ -3657,7 +3669,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D11">
+  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D17">
     <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F700A1F-D1CC-41F5-A045-F7E23D25A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876904D1-315A-4B0F-974D-795AE883C738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="118">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3313,7 +3313,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3524,7 +3524,9 @@
       <c r="C18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
@@ -3534,7 +3536,9 @@
       <c r="C19" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
@@ -3669,7 +3673,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D17">
+  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D19">
     <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876904D1-315A-4B0F-974D-795AE883C738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A106B73-5969-4F9A-A878-5518EA587D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
     <sheet name="会話内容" sheetId="3" r:id="rId2"/>
     <sheet name="7月スケジュール" sheetId="4" r:id="rId3"/>
     <sheet name="8月スケジュール" sheetId="5" r:id="rId4"/>
+    <sheet name="9月スケジュール" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="119">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1590,6 +1591,19 @@
       <t>イジョウ</t>
     </rPh>
     <rPh sb="8" eb="10">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語30個の勉強</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ベンキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1739,7 +1753,112 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3283,12 +3402,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E4 E5">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3309,11 +3428,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17CF3A-9FA8-4D8A-9992-6FA10D79FD7F}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3548,7 +3667,9 @@
       <c r="C20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
@@ -3558,7 +3679,9 @@
       <c r="C21" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
@@ -3568,7 +3691,9 @@
       <c r="C22" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
@@ -3578,7 +3703,9 @@
       <c r="C23" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
@@ -3588,7 +3715,9 @@
       <c r="C24" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -3673,48 +3802,48 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D19">
-    <cfRule type="cellIs" dxfId="8" priority="30" operator="equal">
+  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D24">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="7" priority="29" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C10">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C17">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C24">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3729,4 +3858,396 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9C49FC-5EE9-40C3-BEDE-D471113AE5BA}">
+  <dimension ref="B2:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="14">
+        <v>44440</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="14">
+        <v>44441</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="14">
+        <v>44442</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="14">
+        <v>44443</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="14">
+        <v>44444</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="14">
+        <v>44445</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="14">
+        <v>44446</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="14">
+        <v>44447</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="14">
+        <v>44448</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="14">
+        <v>44449</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="14">
+        <v>44450</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="14">
+        <v>44451</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="14">
+        <v>44452</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="14">
+        <v>44453</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="14">
+        <v>44454</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="14">
+        <v>44455</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="14">
+        <v>44456</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="14">
+        <v>44457</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="14">
+        <v>44458</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="14">
+        <v>44459</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="14">
+        <v>44460</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="14">
+        <v>44461</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="14">
+        <v>44462</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="14">
+        <v>44463</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="14">
+        <v>44464</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="14">
+        <v>44465</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="14">
+        <v>44466</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="14">
+        <v>44467</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="14">
+        <v>44468</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="14">
+        <v>44469</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B3:E3 D4:D24 B4:B32">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C15">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C29">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D32" xr:uid="{8EA7C623-0C02-471F-AAA2-8CEFA3263AEA}">
+      <formula1>"未着手,勉強中,完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D39" xr:uid="{ADDED956-3C5F-42D6-B634-7541CC17E38A}">
+      <formula1>"未着手、勉強中、完了"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A106B73-5969-4F9A-A878-5518EA587D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1689AE6D-7004-4951-9E5A-BFE18A9DCF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="119">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1753,49 +1753,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3402,12 +3360,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E4 E5">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3428,11 +3386,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17CF3A-9FA8-4D8A-9992-6FA10D79FD7F}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3727,7 +3685,9 @@
       <c r="C25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
@@ -3737,7 +3697,9 @@
       <c r="C26" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
@@ -3802,48 +3764,48 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D24">
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D26">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C10">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C17">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C24">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C31">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3864,7 +3826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9C49FC-5EE9-40C3-BEDE-D471113AE5BA}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4195,17 +4157,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3 D4:D24 B4:B32">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1689AE6D-7004-4951-9E5A-BFE18A9DCF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC7AA72-2F08-496B-AB47-5081981CF559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="121">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1596,6 +1596,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>まとめがまだです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>単語30個の勉強</t>
     <rPh sb="0" eb="2">
       <t>タンゴ</t>
@@ -1606,6 +1610,10 @@
     <rPh sb="6" eb="8">
       <t>ベンキョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語30個の勉強</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1753,7 +1761,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3360,12 +3396,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E4 E5">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3386,11 +3422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17CF3A-9FA8-4D8A-9992-6FA10D79FD7F}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3709,7 +3745,9 @@
       <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
@@ -3719,7 +3757,9 @@
       <c r="C28" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
@@ -3729,7 +3769,9 @@
       <c r="C29" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
@@ -3739,7 +3781,9 @@
       <c r="C30" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
@@ -3749,7 +3793,9 @@
       <c r="C31" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
@@ -3759,53 +3805,55 @@
       <c r="C32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D26">
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
+  <conditionalFormatting sqref="B3:E3 B4:B32 D4:D32">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C10">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C17">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C24">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C31">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3826,11 +3874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9C49FC-5EE9-40C3-BEDE-D471113AE5BA}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3859,10 +3907,14 @@
         <v>44440</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="14">
@@ -3871,7 +3923,9 @@
       <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
@@ -3879,40 +3933,56 @@
         <v>44442</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="14">
         <v>44443</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="14">
         <v>44444</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="14">
         <v>44445</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="14">
@@ -3921,7 +3991,9 @@
       <c r="C9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
@@ -3929,10 +4001,14 @@
         <v>44447</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="14">
@@ -3949,7 +4025,7 @@
         <v>44449</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -3959,7 +4035,7 @@
         <v>44450</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -3969,7 +4045,7 @@
         <v>44451</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -3979,7 +4055,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -3999,7 +4075,7 @@
         <v>44454</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -4019,7 +4095,7 @@
         <v>44456</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -4029,7 +4105,7 @@
         <v>44457</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -4039,7 +4115,7 @@
         <v>44458</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -4049,7 +4125,7 @@
         <v>44459</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -4059,7 +4135,7 @@
         <v>44460</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -4069,7 +4145,7 @@
         <v>44461</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="4"/>
@@ -4079,7 +4155,7 @@
         <v>44462</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -4089,7 +4165,7 @@
         <v>44463</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -4099,7 +4175,7 @@
         <v>44464</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -4109,7 +4185,7 @@
         <v>44465</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -4119,7 +4195,7 @@
         <v>44466</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4139,7 +4215,7 @@
         <v>44468</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -4156,47 +4232,67 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:E3 D4:D24 B4:B32">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+  <conditionalFormatting sqref="B3:B32 D3:E3 D4:D24">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="完了">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C8">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C15">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C19:C29">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C15">
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C29">
+  <conditionalFormatting sqref="E5:E8">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"完了"</formula>
     </cfRule>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC7AA72-2F08-496B-AB47-5081981CF559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077915E6-BEAE-4B56-A957-638A903CB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="121">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3878,7 +3878,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4017,7 +4017,9 @@
       <c r="C11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
@@ -4027,7 +4029,9 @@
       <c r="C12" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
@@ -4037,7 +4041,9 @@
       <c r="C13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
@@ -4047,7 +4053,9 @@
       <c r="C14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
@@ -4057,7 +4065,9 @@
       <c r="C15" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077915E6-BEAE-4B56-A957-638A903CB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301E565-89F1-4341-A852-F38E0EDDA20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="121">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -3878,7 +3878,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4077,7 +4077,9 @@
       <c r="C16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
@@ -4087,7 +4089,9 @@
       <c r="C17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301E565-89F1-4341-A852-F38E0EDDA20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62A1855-CF85-4CAB-832E-C681EDBC9FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="121">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1761,7 +1761,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3396,12 +3403,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E4 E5">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3813,47 +3820,47 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3 B4:B32 D4:D32">
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C10">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C17">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C24">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C31">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3878,7 +3885,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4101,7 +4108,9 @@
       <c r="C18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
@@ -4112,7 +4121,9 @@
         <v>120</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="14">
@@ -4122,7 +4133,9 @@
         <v>120</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="14">
@@ -4132,7 +4145,9 @@
         <v>120</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="14">
@@ -4142,7 +4157,9 @@
         <v>120</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="14">
@@ -4152,7 +4169,9 @@
         <v>120</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="14">
@@ -4161,7 +4180,9 @@
       <c r="C24" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -4171,7 +4192,9 @@
       <c r="C25" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
@@ -4246,67 +4269,72 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B3:B32 D3:E3 D4:D24">
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+  <conditionalFormatting sqref="B3:B32 D3:E3 D4:D25">
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C8">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13:C15">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C15">
+  <conditionalFormatting sqref="C17">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="C19:C29">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C29">
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="E5:E8">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E8">
+  <conditionalFormatting sqref="E10">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E19:E23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"完了"</formula>
     </cfRule>

--- a/日本語勉強のスケジュール.xlsx
+++ b/日本語勉強のスケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kreis1g-tpc-029\Desktop\穆作業\Git管理\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62A1855-CF85-4CAB-832E-C681EDBC9FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E71097-9A5E-424B-8AC3-86B06513DA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{38852807-9EA7-4166-A041-8EC02FD49CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="6月スケジュール" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="7月スケジュール" sheetId="4" r:id="rId3"/>
     <sheet name="8月スケジュール" sheetId="5" r:id="rId4"/>
     <sheet name="9月スケジュール" sheetId="6" r:id="rId5"/>
+    <sheet name="10月スケジュール" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="123">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -1614,6 +1615,17 @@
   </si>
   <si>
     <t>単語30個の勉強</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語50個の勉強</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N2模擬試験</t>
+    <rPh sb="2" eb="6">
+      <t>モギシケン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1679,7 +1691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1702,13 +1714,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1757,11 +1795,255 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3403,12 +3685,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E4 E5">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3820,47 +4102,47 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E3 B4:B32 D4:D32">
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="30" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="55" priority="29" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C10">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C17">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C24">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C31">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3881,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9C49FC-5EE9-40C3-BEDE-D471113AE5BA}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E19" sqref="E19:E23"/>
@@ -4270,72 +4552,72 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:B32 D3:E3 D4:D25">
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C8">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C29">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4350,4 +4632,454 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4756FDF-6AC7-4317-8274-F71F99B2A811}">
+  <dimension ref="B2:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="14">
+        <v>44473</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="14">
+        <v>44474</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="14">
+        <v>44475</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="14">
+        <v>44476</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="14">
+        <v>44477</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="14">
+        <v>44478</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="14">
+        <v>44479</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="14">
+        <v>44480</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="14">
+        <v>44481</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="14">
+        <v>44482</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="14">
+        <v>44483</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="14">
+        <v>44484</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="14">
+        <v>44485</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="14">
+        <v>44486</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="14">
+        <v>44487</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="14">
+        <v>44488</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19" s="14">
+        <v>44489</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="14">
+        <v>44490</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="14">
+        <v>44491</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="14">
+        <v>44492</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="14">
+        <v>44493</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="14">
+        <v>44494</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="14">
+        <v>44495</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B26" s="14">
+        <v>44496</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="14">
+        <v>44497</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="14">
+        <v>44498</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="14">
+        <v>44499</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="14">
+        <v>44500</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C29:C30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D3:D24 B3:B30">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5 C7">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E7">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E22">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12 C14">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19 C21">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26 C28">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D36" xr:uid="{A3127C88-E912-4386-BB38-C167E3E1CE0D}">
+      <formula1>"未着手、勉強中、完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30" xr:uid="{36F7A963-4761-4FD0-B883-561EF9E206C5}">
+      <formula1>"未着手,勉強中,完了"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>